--- a/src/main/resources/xlsx/相关科研论文.xlsx
+++ b/src/main/resources/xlsx/相关科研论文.xlsx
@@ -5,33 +5,25 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Lichee\Desktop\20191015\数据管理相关表格\重要\ok\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Lichee\Desktop\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{382BFF63-D25A-4DCE-AACF-A4459BA454A1}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{433AB32E-FF48-43E7-AD8F-204B09FD41AC}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="675" windowWidth="20385" windowHeight="11835" xr2:uid="{9FE81EE5-03A5-402B-92FF-1DC048E29872}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="researchpaper" sheetId="2" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
+    <sheet name="数据" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+  <si>
+    <t>地质公园ID</t>
+  </si>
   <si>
     <t>成果编号</t>
   </si>
@@ -66,72 +58,69 @@
     <t>备注</t>
   </si>
   <si>
-    <t>序号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>地质公园编号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>存储地址</t>
-  </si>
-  <si>
-    <t>阿大</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SCI</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>及时达</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>大大</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>111.pdf</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color indexed="8"/>
       <name val="等线"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="等线"/>
-      <family val="2"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="22"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -140,9 +129,12 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -457,131 +449,59 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D51E033-F881-4EE6-97D9-B57FE7AE3057}">
-  <dimension ref="A1:N2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:M1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+      <selection activeCell="A2" sqref="A2:M2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.625" defaultRowHeight="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="4.75" customWidth="1"/>
-    <col min="2" max="2" width="14.75" customWidth="1"/>
-    <col min="3" max="3" width="17.875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="5.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="4.875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.375" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+    <row r="1" spans="1:13" ht="37.5" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B1" t="s">
+      <c r="M1" s="1" t="s">
         <v>12</v>
-      </c>
-      <c r="C1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" t="s">
-        <v>4</v>
-      </c>
-      <c r="H1" t="s">
-        <v>5</v>
-      </c>
-      <c r="I1" t="s">
-        <v>6</v>
-      </c>
-      <c r="J1" t="s">
-        <v>7</v>
-      </c>
-      <c r="K1" t="s">
-        <v>8</v>
-      </c>
-      <c r="L1" t="s">
-        <v>9</v>
-      </c>
-      <c r="M1" t="s">
-        <v>10</v>
-      </c>
-      <c r="N1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2">
-        <v>1111</v>
-      </c>
-      <c r="D2">
-        <v>222</v>
-      </c>
-      <c r="E2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F2">
-        <v>2010</v>
-      </c>
-      <c r="G2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H2" t="s">
-        <v>15</v>
-      </c>
-      <c r="I2">
-        <v>1</v>
-      </c>
-      <c r="J2">
-        <v>2</v>
-      </c>
-      <c r="K2" t="s">
-        <v>16</v>
-      </c>
-      <c r="L2" t="s">
-        <v>17</v>
-      </c>
-      <c r="M2">
-        <v>111</v>
-      </c>
-      <c r="N2" t="s">
-        <v>18</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25921A1F-8155-46DF-9CF7-8B8C04CBAC97}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>